--- a/CSP_C1.xlsx
+++ b/CSP_C1.xlsx
@@ -478,7 +478,7 @@
         <v>26135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4014150040002278</v>
+        <v>0.1854658009979175</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -502,7 +502,7 @@
         <v>218601</v>
       </c>
       <c r="D3" t="n">
-        <v>9.984145461000026</v>
+        <v>6.37490644099671</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -526,7 +526,7 @@
         <v>749630</v>
       </c>
       <c r="D4" t="n">
-        <v>20.79472396400024</v>
+        <v>10.85041264000029</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -550,7 +550,7 @@
         <v>1660143</v>
       </c>
       <c r="D5" t="n">
-        <v>45.08561061899991</v>
+        <v>25.4916347790022</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
@@ -574,7 +574,7 @@
         <v>3325681</v>
       </c>
       <c r="D6" t="n">
-        <v>116.4795522869999</v>
+        <v>64.11864413600051</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -598,7 +598,7 @@
         <v>174277</v>
       </c>
       <c r="D7" t="n">
-        <v>1.878674393999972</v>
+        <v>0.7694899710004393</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -622,7 +622,7 @@
         <v>1058951</v>
       </c>
       <c r="D8" t="n">
-        <v>13.04177235099996</v>
+        <v>13.79679634100103</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -646,7 +646,7 @@
         <v>3983528</v>
       </c>
       <c r="D9" t="n">
-        <v>50.45316752899998</v>
+        <v>27.5478598539994</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -670,7 +670,7 @@
         <v>8565436</v>
       </c>
       <c r="D10" t="n">
-        <v>175.3876138330002</v>
+        <v>73.90364072800003</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
@@ -694,7 +694,7 @@
         <v>15651252</v>
       </c>
       <c r="D11" t="n">
-        <v>478.4915931410001</v>
+        <v>193.8681986440024</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -718,10 +718,10 @@
         <v>995625</v>
       </c>
       <c r="D12" t="n">
-        <v>3.512680326000009</v>
+        <v>23.33660387700002</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -742,10 +742,10 @@
         <v>909053</v>
       </c>
       <c r="D13" t="n">
-        <v>5.154797614000017</v>
+        <v>38.41004757100018</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         <v>928175</v>
       </c>
       <c r="D14" t="n">
-        <v>17.01025271699928</v>
+        <v>8.519867435999913</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C15" t="n">
-        <v>2412</v>
+        <v>1634</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09105324000029213</v>
+        <v>0.01353961700078798</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="C16" t="n">
-        <v>10426</v>
+        <v>7842</v>
       </c>
       <c r="D16" t="n">
-        <v>0.29513118199975</v>
+        <v>0.100543580003432</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -838,7 +838,7 @@
         <v>15170</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2384741619998749</v>
+        <v>0.152428344998043</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -862,7 +862,7 @@
         <v>959</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02389552600016032</v>
+        <v>0.00380709699675208</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>5423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06253721099983522</v>
+        <v>0.02201738800067687</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="C20" t="n">
-        <v>9127</v>
+        <v>6148</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3204420329993809</v>
+        <v>0.1145449559990084</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -934,7 +934,7 @@
         <v>1693</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02296270900023956</v>
+        <v>0.006563068003742956</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>6985</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06899761299973761</v>
+        <v>0.02292848400247749</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>20360</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2716640680000637</v>
+        <v>0.1595110019989079</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="C24" t="n">
-        <v>11017</v>
+        <v>7453</v>
       </c>
       <c r="D24" t="n">
-        <v>0.444091314000616</v>
+        <v>0.1674030559952371</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -1030,7 +1030,7 @@
         <v>12971</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1699250519995985</v>
+        <v>0.1182485919998726</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -1054,7 +1054,7 @@
         <v>41019</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4741269599999214</v>
+        <v>0.3190244579964201</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>8977</v>
       </c>
       <c r="D27" t="n">
-        <v>0.121809088000191</v>
+        <v>0.0305055179996998</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>80723</v>
       </c>
       <c r="D28" t="n">
-        <v>2.078172411000196</v>
+        <v>0.339555175996793</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -1126,7 +1126,7 @@
         <v>3541590</v>
       </c>
       <c r="D29" t="n">
-        <v>8.352011416000096</v>
+        <v>7.186975135999091</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
@@ -1150,7 +1150,7 @@
         <v>3180334</v>
       </c>
       <c r="D30" t="n">
-        <v>8.866182880999986</v>
+        <v>6.565853181004059</v>
       </c>
       <c r="E30" t="n">
         <v>23</v>
@@ -1174,7 +1174,7 @@
         <v>1662823</v>
       </c>
       <c r="D31" t="n">
-        <v>56.78325669699916</v>
+        <v>20.78300001799653</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
@@ -1198,7 +1198,7 @@
         <v>1364966</v>
       </c>
       <c r="D32" t="n">
-        <v>6.922859839998637</v>
+        <v>8.217602974000329</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -1222,14 +1222,14 @@
         <v>502242</v>
       </c>
       <c r="D33" t="n">
-        <v>2.223724682999091</v>
+        <v>440.8838805600026</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
         <v>1254546</v>
       </c>
       <c r="D34" t="n">
-        <v>107.1469425809992</v>
+        <v>56.34603770499962</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -1270,7 +1270,7 @@
         <v>100228</v>
       </c>
       <c r="D35" t="n">
-        <v>1.765287022000848</v>
+        <v>0.418952038999123</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
@@ -1294,7 +1294,7 @@
         <v>3178391</v>
       </c>
       <c r="D36" t="n">
-        <v>57.06725127199934</v>
+        <v>23.83931398599816</v>
       </c>
       <c r="E36" t="n">
         <v>6</v>
@@ -1318,7 +1318,7 @@
         <v>79703</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6434391490001872</v>
+        <v>0.2540792230000193</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>300233</v>
       </c>
       <c r="D38" t="n">
-        <v>5.656344932998763</v>
+        <v>2.287235221003357</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>284633</v>
       </c>
       <c r="D39" t="n">
-        <v>5.139952420002373</v>
+        <v>2.423461952996149</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>20360</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1197489130026952</v>
+        <v>0.1630570299967076</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -1414,7 +1414,7 @@
         <v>3885166</v>
       </c>
       <c r="D41" t="n">
-        <v>14.91552884600242</v>
+        <v>25.76155824199668</v>
       </c>
       <c r="E41" t="n">
         <v>6</v>
@@ -1438,7 +1438,7 @@
         <v>6426878</v>
       </c>
       <c r="D42" t="n">
-        <v>126.3481987570012</v>
+        <v>70.51578570099809</v>
       </c>
       <c r="E42" t="n">
         <v>6</v>
@@ -1462,7 +1462,7 @@
         <v>3885166</v>
       </c>
       <c r="D43" t="n">
-        <v>20.31624190000002</v>
+        <v>26.26395418599714</v>
       </c>
       <c r="E43" t="n">
         <v>6</v>
@@ -1486,7 +1486,7 @@
         <v>6380660</v>
       </c>
       <c r="D44" t="n">
-        <v>246.5457872879997</v>
+        <v>83.53621197000029</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
@@ -1510,7 +1510,7 @@
         <v>1276347</v>
       </c>
       <c r="D45" t="n">
-        <v>29.92624480499944</v>
+        <v>14.56240587699722</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
@@ -1534,7 +1534,7 @@
         <v>328267</v>
       </c>
       <c r="D46" t="n">
-        <v>6.270482292002271</v>
+        <v>3.59251386699907</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -1558,7 +1558,7 @@
         <v>4704567</v>
       </c>
       <c r="D47" t="n">
-        <v>164.4264226490013</v>
+        <v>49.79581049199624</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -1582,7 +1582,7 @@
         <v>6434306</v>
       </c>
       <c r="D48" t="n">
-        <v>109.9962836279992</v>
+        <v>65.47249596600159</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -1606,14 +1606,14 @@
         <v>20653340</v>
       </c>
       <c r="D49" t="n">
-        <v>266.5489944450019</v>
+        <v>267.5666719950023</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1637</v>
+        <v>1618</v>
       </c>
       <c r="C50" t="n">
-        <v>33574</v>
+        <v>17262</v>
       </c>
       <c r="D50" t="n">
-        <v>354.9198387399992</v>
+        <v>169.7970782269986</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
@@ -1654,7 +1654,7 @@
         <v>5322878</v>
       </c>
       <c r="D51" t="n">
-        <v>244.8242208390002</v>
+        <v>94.84138439600065</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>

--- a/CSP_C1.xlsx
+++ b/CSP_C1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,6 +1665,78 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>gcut1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2709</v>
+      </c>
+      <c r="C52" t="n">
+        <v>72593</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.811931300035212</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>gcut2</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6188</v>
+      </c>
+      <c r="C53" t="n">
+        <v>372822</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.085649300017394</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>gcut3</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9981</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1223375</v>
+      </c>
+      <c r="D54" t="n">
+        <v>79.56073739996646</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
